--- a/Excel/Attendance.xlsx
+++ b/Excel/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5346E7B8-AAA1-451E-BDDF-835AA25846E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4C6823-D9E4-4225-8281-85CFD77C6A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="40">
   <si>
     <t>attendanceId|String</t>
   </si>
@@ -156,15 +156,6 @@
   </si>
   <si>
     <t>attendanceGachaWeight|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4458,7 +4449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDAE345-2D14-4E7B-B430-5F41B96D4F28}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4484,10 +4477,10 @@
         <v>34</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4498,24 +4491,24 @@
         <v>35</v>
       </c>
       <c r="C3">
-        <v>1250</v>
+        <v>125000</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4526,7 +4519,7 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4540,10 +4533,10 @@
         <v>35</v>
       </c>
       <c r="C6">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4554,10 +4547,10 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>3750</v>
+        <v>375000</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Attendance.xlsx
+++ b/Excel/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4C6823-D9E4-4225-8281-85CFD77C6A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD4FBE9-B22B-4D38-BE30-5F7F41B962AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="41">
   <si>
     <t>attendanceId|String</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>attendanceGachaWeight|Float</t>
+  </si>
+  <si>
+    <t>key|Int</t>
   </si>
 </sst>
 </file>
@@ -1093,13 +1096,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F33536F-1770-4278-9AE6-CEFB86A0735C}">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,3335 +1112,3899 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
+      <c r="C2">
+        <v>698</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
+      <c r="C3">
+        <v>829</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
+      <c r="C4">
+        <v>728</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
+      <c r="C5">
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
+      <c r="C6">
+        <v>798</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
+      <c r="C7">
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
         <v>3750</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
+      <c r="C8">
+        <v>335</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
+      <c r="C9">
+        <v>758</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
+      <c r="C10">
+        <v>808</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
         <v>6250</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
+      <c r="C11">
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>33</v>
+      <c r="C12">
+        <v>645</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
+      <c r="C13">
+        <v>342</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
         <v>12500</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
+      <c r="C14">
+        <v>441</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
+      <c r="C15">
+        <v>994</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
+      <c r="C16">
+        <v>967</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
+      <c r="C17">
+        <v>577</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17">
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>33</v>
+      <c r="C18">
+        <v>669</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>33</v>
+      <c r="C19">
+        <v>306</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>33</v>
+      <c r="C20">
+        <v>467</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
         <v>33750</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
+      <c r="C21">
+        <v>600</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
+      <c r="C22">
+        <v>582</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>33</v>
+      <c r="C23">
+        <v>254</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23">
         <v>27500</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
+      <c r="C24">
+        <v>498</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>33</v>
+      <c r="C25">
+        <v>494</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25">
         <v>36250</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>33</v>
+      <c r="C26">
+        <v>239</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26">
         <v>2000</v>
       </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
       <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26">
         <v>10000000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
+      <c r="C27">
+        <v>383</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>33</v>
+      <c r="C28">
+        <v>513</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28">
         <v>1250</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
+      <c r="C29">
+        <v>446</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
-        <v>33</v>
+      <c r="C30">
+        <v>470</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
-        <v>33</v>
+      <c r="C31">
+        <v>496</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31">
         <v>2500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
-        <v>33</v>
+      <c r="C32">
+        <v>218</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32">
         <v>3750</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
-      <c r="C33" t="s">
-        <v>33</v>
+      <c r="C33">
+        <v>434</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
-      <c r="C34" t="s">
-        <v>33</v>
+      <c r="C34">
+        <v>629</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34">
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
-      <c r="C35" t="s">
-        <v>33</v>
+      <c r="C35">
+        <v>733</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35">
         <v>999</v>
       </c>
-      <c r="F35" t="s">
-        <v>33</v>
-      </c>
       <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35">
         <v>5000000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
-        <v>33</v>
+      <c r="C36">
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
-        <v>33</v>
+      <c r="C37">
+        <v>373</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37">
         <v>1250</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
-        <v>33</v>
+      <c r="C38">
+        <v>447</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38">
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" t="s">
-        <v>33</v>
+      <c r="C39">
+        <v>732</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
-        <v>33</v>
+      <c r="C40">
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40">
         <v>2500</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
-      <c r="C41" t="s">
-        <v>33</v>
+      <c r="C41">
+        <v>652</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41">
         <v>3750</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
       <c r="B42">
         <v>7</v>
       </c>
-      <c r="C42" t="s">
-        <v>33</v>
+      <c r="C42">
+        <v>821</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42">
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
       <c r="B43">
         <v>8</v>
       </c>
-      <c r="C43" t="s">
-        <v>33</v>
+      <c r="C43">
+        <v>922</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43">
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
       <c r="B44">
         <v>9</v>
       </c>
-      <c r="C44" t="s">
-        <v>33</v>
+      <c r="C44">
+        <v>844</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44">
         <v>999</v>
       </c>
-      <c r="F44" t="s">
-        <v>33</v>
-      </c>
       <c r="G44" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44">
         <v>5000000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
-        <v>33</v>
+      <c r="C45">
+        <v>636</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" t="s">
-        <v>33</v>
+      <c r="C46">
+        <v>334</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46">
         <v>1250</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
-        <v>33</v>
+      <c r="C47">
+        <v>858</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47">
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
-      <c r="C48" t="s">
-        <v>33</v>
+      <c r="C48">
+        <v>965</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48">
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
-      <c r="C49" t="s">
-        <v>33</v>
+      <c r="C49">
+        <v>657</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49">
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
-      <c r="C50" t="s">
-        <v>33</v>
+      <c r="C50">
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50">
         <v>3750</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
       <c r="B51">
         <v>7</v>
       </c>
-      <c r="C51" t="s">
-        <v>33</v>
+      <c r="C51">
+        <v>798</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51">
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
       <c r="B52">
         <v>8</v>
       </c>
-      <c r="C52" t="s">
-        <v>33</v>
+      <c r="C52">
+        <v>803</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52">
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
       <c r="B53">
         <v>9</v>
       </c>
-      <c r="C53" t="s">
-        <v>33</v>
+      <c r="C53">
+        <v>512</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53">
         <v>999</v>
       </c>
-      <c r="F53" t="s">
-        <v>33</v>
-      </c>
       <c r="G53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53">
         <v>5000000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" t="s">
-        <v>33</v>
+      <c r="C54">
+        <v>450</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54">
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
-      <c r="C55" t="s">
-        <v>33</v>
+      <c r="C55">
+        <v>645</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55">
         <v>1250</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56" t="s">
-        <v>33</v>
+      <c r="C56">
+        <v>921</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56">
         <v>10000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
-      <c r="C57" t="s">
-        <v>33</v>
+      <c r="C57">
+        <v>586</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
-      <c r="C58" t="s">
-        <v>33</v>
+      <c r="C58">
+        <v>864</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58">
         <v>2500</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
-      <c r="C59" t="s">
-        <v>33</v>
+      <c r="C59">
+        <v>374</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59">
         <v>3750</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
       <c r="B60">
         <v>7</v>
       </c>
-      <c r="C60" t="s">
-        <v>33</v>
+      <c r="C60">
+        <v>980</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60">
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
       <c r="B61">
         <v>8</v>
       </c>
-      <c r="C61" t="s">
-        <v>33</v>
+      <c r="C61">
+        <v>666</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61">
+        <v>33</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61">
         <v>10000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>15</v>
       </c>
       <c r="B62">
         <v>9</v>
       </c>
-      <c r="C62" t="s">
-        <v>33</v>
+      <c r="C62">
+        <v>863</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62">
         <v>999</v>
       </c>
-      <c r="F62" t="s">
-        <v>33</v>
-      </c>
       <c r="G62" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62">
+        <v>33</v>
+      </c>
+      <c r="H62" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62">
         <v>5000000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" t="s">
-        <v>33</v>
+      <c r="C63">
+        <v>760</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63">
+        <v>33</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>16</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
-      <c r="C64" t="s">
-        <v>33</v>
+      <c r="C64">
+        <v>805</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64">
         <v>1250</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65" t="s">
-        <v>33</v>
+      <c r="C65">
+        <v>537</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65">
         <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
-      <c r="C66" t="s">
-        <v>33</v>
+      <c r="C66">
+        <v>969</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66">
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
-      <c r="C67" t="s">
-        <v>33</v>
+      <c r="C67">
+        <v>620</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67">
         <v>2500</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
-      <c r="C68" t="s">
-        <v>33</v>
+      <c r="C68">
+        <v>714</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68">
         <v>3750</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
       <c r="B69">
         <v>7</v>
       </c>
-      <c r="C69" t="s">
-        <v>33</v>
+      <c r="C69">
+        <v>478</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69">
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
       <c r="B70">
         <v>8</v>
       </c>
-      <c r="C70" t="s">
-        <v>33</v>
+      <c r="C70">
+        <v>390</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70">
         <v>10000</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
       <c r="B71">
         <v>9</v>
       </c>
-      <c r="C71" t="s">
-        <v>33</v>
+      <c r="C71">
+        <v>110</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71">
         <v>999</v>
       </c>
-      <c r="F71" t="s">
-        <v>33</v>
-      </c>
       <c r="G71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71">
+        <v>33</v>
+      </c>
+      <c r="H71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71">
         <v>5000000</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>17</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" t="s">
-        <v>33</v>
+      <c r="C72">
+        <v>668</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>17</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
-      <c r="C73" t="s">
-        <v>33</v>
+      <c r="C73">
+        <v>624</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73">
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>17</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74" t="s">
-        <v>33</v>
+      <c r="C74">
+        <v>426</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74">
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>17</v>
       </c>
       <c r="B75">
         <v>4</v>
       </c>
-      <c r="C75" t="s">
-        <v>33</v>
+      <c r="C75">
+        <v>143</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75">
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>17</v>
       </c>
       <c r="B76">
         <v>5</v>
       </c>
-      <c r="C76" t="s">
-        <v>33</v>
+      <c r="C76">
+        <v>221</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76">
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>17</v>
       </c>
       <c r="B77">
         <v>6</v>
       </c>
-      <c r="C77" t="s">
-        <v>33</v>
+      <c r="C77">
+        <v>504</v>
       </c>
       <c r="D77" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>17</v>
       </c>
       <c r="B78">
         <v>7</v>
       </c>
-      <c r="C78" t="s">
-        <v>33</v>
+      <c r="C78">
+        <v>139</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78">
+        <v>33</v>
+      </c>
+      <c r="E78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78">
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>17</v>
       </c>
       <c r="B79">
         <v>8</v>
       </c>
-      <c r="C79" t="s">
-        <v>33</v>
+      <c r="C79">
+        <v>290</v>
       </c>
       <c r="D79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79">
+        <v>33</v>
+      </c>
+      <c r="E79" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79">
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>17</v>
       </c>
       <c r="B80">
         <v>9</v>
       </c>
-      <c r="C80" t="s">
-        <v>33</v>
+      <c r="C80">
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80">
+        <v>33</v>
+      </c>
+      <c r="E80" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80">
         <v>500</v>
       </c>
-      <c r="F80" t="s">
-        <v>33</v>
-      </c>
       <c r="G80" t="s">
-        <v>35</v>
-      </c>
-      <c r="H80">
+        <v>33</v>
+      </c>
+      <c r="H80" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80">
         <v>5000000</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" t="s">
-        <v>33</v>
+      <c r="C81">
+        <v>455</v>
       </c>
       <c r="D81" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81">
+        <v>33</v>
+      </c>
+      <c r="E81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>18</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
-      <c r="C82" t="s">
-        <v>33</v>
+      <c r="C82">
+        <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82">
         <v>1250</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>18</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
-      <c r="C83" t="s">
-        <v>33</v>
+      <c r="C83">
+        <v>700</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83">
+        <v>33</v>
+      </c>
+      <c r="E83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83">
         <v>10000</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>18</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
-      <c r="C84" t="s">
-        <v>33</v>
+      <c r="C84">
+        <v>534</v>
       </c>
       <c r="D84" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>18</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
-      <c r="C85" t="s">
-        <v>33</v>
+      <c r="C85">
+        <v>952</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85">
         <v>2500</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>18</v>
       </c>
       <c r="B86">
         <v>6</v>
       </c>
-      <c r="C86" t="s">
-        <v>33</v>
+      <c r="C86">
+        <v>444</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86">
+        <v>33</v>
+      </c>
+      <c r="E86" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86">
         <v>3750</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
       <c r="B87">
         <v>7</v>
       </c>
-      <c r="C87" t="s">
-        <v>33</v>
+      <c r="C87">
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87">
         <v>220</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
       <c r="B88">
         <v>8</v>
       </c>
-      <c r="C88" t="s">
-        <v>33</v>
+      <c r="C88">
+        <v>256</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88">
+        <v>33</v>
+      </c>
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88">
         <v>10000</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>18</v>
       </c>
       <c r="B89">
         <v>9</v>
       </c>
-      <c r="C89" t="s">
-        <v>33</v>
+      <c r="C89">
+        <v>755</v>
       </c>
       <c r="D89" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89">
+        <v>33</v>
+      </c>
+      <c r="E89" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89">
         <v>500</v>
       </c>
-      <c r="F89" t="s">
-        <v>33</v>
-      </c>
       <c r="G89" t="s">
-        <v>35</v>
-      </c>
-      <c r="H89">
+        <v>33</v>
+      </c>
+      <c r="H89" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89">
         <v>5000000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>19</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" t="s">
-        <v>33</v>
+      <c r="C90">
+        <v>752</v>
       </c>
       <c r="D90" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90">
+        <v>33</v>
+      </c>
+      <c r="E90" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90">
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>19</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
-      <c r="C91" t="s">
-        <v>33</v>
+      <c r="C91">
+        <v>378</v>
       </c>
       <c r="D91" t="s">
-        <v>35</v>
-      </c>
-      <c r="E91">
+        <v>33</v>
+      </c>
+      <c r="E91" t="s">
+        <v>35</v>
+      </c>
+      <c r="F91">
         <v>1250</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>19</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
-      <c r="C92" t="s">
-        <v>33</v>
+      <c r="C92">
+        <v>750</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92">
+        <v>33</v>
+      </c>
+      <c r="E92" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92">
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>19</v>
       </c>
       <c r="B93">
         <v>4</v>
       </c>
-      <c r="C93" t="s">
-        <v>33</v>
+      <c r="C93">
+        <v>773</v>
       </c>
       <c r="D93" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>19</v>
       </c>
       <c r="B94">
         <v>5</v>
       </c>
-      <c r="C94" t="s">
-        <v>33</v>
+      <c r="C94">
+        <v>760</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94">
+        <v>33</v>
+      </c>
+      <c r="E94" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94">
         <v>2500</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>19</v>
       </c>
       <c r="B95">
         <v>6</v>
       </c>
-      <c r="C95" t="s">
-        <v>33</v>
+      <c r="C95">
+        <v>529</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95">
         <v>3750</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>19</v>
       </c>
       <c r="B96">
         <v>7</v>
       </c>
-      <c r="C96" t="s">
-        <v>33</v>
+      <c r="C96">
+        <v>816</v>
       </c>
       <c r="D96" t="s">
-        <v>34</v>
-      </c>
-      <c r="E96">
+        <v>33</v>
+      </c>
+      <c r="E96" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96">
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>19</v>
       </c>
       <c r="B97">
         <v>8</v>
       </c>
-      <c r="C97" t="s">
-        <v>33</v>
+      <c r="C97">
+        <v>625</v>
       </c>
       <c r="D97" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97">
+        <v>33</v>
+      </c>
+      <c r="E97" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97">
         <v>10000</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>19</v>
       </c>
       <c r="B98">
         <v>9</v>
       </c>
-      <c r="C98" t="s">
-        <v>33</v>
+      <c r="C98">
+        <v>923</v>
       </c>
       <c r="D98" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98">
+        <v>33</v>
+      </c>
+      <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98">
         <v>500</v>
       </c>
-      <c r="F98" t="s">
-        <v>33</v>
-      </c>
       <c r="G98" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98">
+        <v>33</v>
+      </c>
+      <c r="H98" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98">
         <v>5000000</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>20</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" t="s">
-        <v>33</v>
+      <c r="C99">
+        <v>672</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
-      </c>
-      <c r="E99">
+        <v>33</v>
+      </c>
+      <c r="E99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99">
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>20</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
-      <c r="C100" t="s">
-        <v>33</v>
+      <c r="C100">
+        <v>878</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100">
+        <v>33</v>
+      </c>
+      <c r="E100" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100">
         <v>1250</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>20</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
-      <c r="C101" t="s">
-        <v>33</v>
+      <c r="C101">
+        <v>672</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>35</v>
+      </c>
+      <c r="F101">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>20</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
-      <c r="C102" t="s">
-        <v>33</v>
+      <c r="C102">
+        <v>113</v>
       </c>
       <c r="D102" t="s">
-        <v>34</v>
-      </c>
-      <c r="E102">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102">
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>20</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
-      <c r="C103" t="s">
-        <v>33</v>
+      <c r="C103">
+        <v>823</v>
       </c>
       <c r="D103" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103">
         <v>2500</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>20</v>
       </c>
       <c r="B104">
         <v>6</v>
       </c>
-      <c r="C104" t="s">
-        <v>33</v>
+      <c r="C104">
+        <v>597</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
-      </c>
-      <c r="E104">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>35</v>
+      </c>
+      <c r="F104">
         <v>3750</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>20</v>
       </c>
       <c r="B105">
         <v>7</v>
       </c>
-      <c r="C105" t="s">
-        <v>33</v>
+      <c r="C105">
+        <v>979</v>
       </c>
       <c r="D105" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105">
+        <v>33</v>
+      </c>
+      <c r="E105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105">
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>20</v>
       </c>
       <c r="B106">
         <v>8</v>
       </c>
-      <c r="C106" t="s">
-        <v>33</v>
+      <c r="C106">
+        <v>559</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106">
+        <v>33</v>
+      </c>
+      <c r="E106" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106">
         <v>10000</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>20</v>
       </c>
       <c r="B107">
         <v>9</v>
       </c>
-      <c r="C107" t="s">
-        <v>33</v>
+      <c r="C107">
+        <v>895</v>
       </c>
       <c r="D107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E107">
+        <v>33</v>
+      </c>
+      <c r="E107" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107">
         <v>500</v>
       </c>
-      <c r="F107" t="s">
-        <v>33</v>
-      </c>
       <c r="G107" t="s">
-        <v>35</v>
-      </c>
-      <c r="H107">
+        <v>33</v>
+      </c>
+      <c r="H107" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107">
         <v>5000000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>21</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" t="s">
-        <v>33</v>
+      <c r="C108">
+        <v>271</v>
       </c>
       <c r="D108" t="s">
-        <v>34</v>
-      </c>
-      <c r="E108">
+        <v>33</v>
+      </c>
+      <c r="E108" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>21</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
-      <c r="C109" t="s">
-        <v>33</v>
+      <c r="C109">
+        <v>293</v>
       </c>
       <c r="D109" t="s">
-        <v>34</v>
-      </c>
-      <c r="E109">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109">
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>21</v>
       </c>
       <c r="B110">
         <v>3</v>
       </c>
-      <c r="C110" t="s">
-        <v>33</v>
+      <c r="C110">
+        <v>970</v>
       </c>
       <c r="D110" t="s">
-        <v>34</v>
-      </c>
-      <c r="E110">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110">
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>21</v>
       </c>
       <c r="B111">
         <v>4</v>
       </c>
-      <c r="C111" t="s">
-        <v>33</v>
+      <c r="C111">
+        <v>995</v>
       </c>
       <c r="D111" t="s">
-        <v>34</v>
-      </c>
-      <c r="E111">
+        <v>33</v>
+      </c>
+      <c r="E111" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111">
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>21</v>
       </c>
       <c r="B112">
         <v>5</v>
       </c>
-      <c r="C112" t="s">
-        <v>33</v>
+      <c r="C112">
+        <v>788</v>
       </c>
       <c r="D112" t="s">
-        <v>34</v>
-      </c>
-      <c r="E112">
+        <v>33</v>
+      </c>
+      <c r="E112" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112">
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>21</v>
       </c>
       <c r="B113">
         <v>6</v>
       </c>
-      <c r="C113" t="s">
-        <v>33</v>
+      <c r="C113">
+        <v>297</v>
       </c>
       <c r="D113" t="s">
-        <v>34</v>
-      </c>
-      <c r="E113">
+        <v>33</v>
+      </c>
+      <c r="E113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113">
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>21</v>
       </c>
       <c r="B114">
         <v>7</v>
       </c>
-      <c r="C114" t="s">
-        <v>33</v>
+      <c r="C114">
+        <v>614</v>
       </c>
       <c r="D114" t="s">
-        <v>34</v>
-      </c>
-      <c r="E114">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114">
         <v>250</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>21</v>
       </c>
       <c r="B115">
         <v>8</v>
       </c>
-      <c r="C115" t="s">
-        <v>33</v>
+      <c r="C115">
+        <v>882</v>
       </c>
       <c r="D115" t="s">
-        <v>34</v>
-      </c>
-      <c r="E115">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115">
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>21</v>
       </c>
       <c r="B116">
         <v>9</v>
       </c>
-      <c r="C116" t="s">
-        <v>33</v>
+      <c r="C116">
+        <v>839</v>
       </c>
       <c r="D116" t="s">
-        <v>34</v>
-      </c>
-      <c r="E116">
+        <v>33</v>
+      </c>
+      <c r="E116" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116">
         <v>500</v>
       </c>
-      <c r="F116" t="s">
-        <v>33</v>
-      </c>
       <c r="G116" t="s">
-        <v>35</v>
-      </c>
-      <c r="H116">
+        <v>33</v>
+      </c>
+      <c r="H116" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116">
         <v>5000000</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>22</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
-      <c r="C117" t="s">
-        <v>33</v>
+      <c r="C117">
+        <v>501</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117">
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>22</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
-      <c r="C118" t="s">
-        <v>33</v>
+      <c r="C118">
+        <v>300</v>
       </c>
       <c r="D118" t="s">
-        <v>35</v>
-      </c>
-      <c r="E118">
+        <v>33</v>
+      </c>
+      <c r="E118" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118">
         <v>1250</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>22</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
-      <c r="C119" t="s">
-        <v>33</v>
+      <c r="C119">
+        <v>229</v>
       </c>
       <c r="D119" t="s">
-        <v>35</v>
-      </c>
-      <c r="E119">
+        <v>33</v>
+      </c>
+      <c r="E119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119">
         <v>10000</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>22</v>
       </c>
       <c r="B120">
         <v>4</v>
       </c>
-      <c r="C120" t="s">
-        <v>33</v>
+      <c r="C120">
+        <v>186</v>
       </c>
       <c r="D120" t="s">
-        <v>34</v>
-      </c>
-      <c r="E120">
+        <v>33</v>
+      </c>
+      <c r="E120" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120">
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>22</v>
       </c>
       <c r="B121">
         <v>5</v>
       </c>
-      <c r="C121" t="s">
-        <v>33</v>
+      <c r="C121">
+        <v>355</v>
       </c>
       <c r="D121" t="s">
-        <v>34</v>
-      </c>
-      <c r="E121">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s">
+        <v>34</v>
+      </c>
+      <c r="F121">
         <v>2000</v>
       </c>
-      <c r="F121" t="s">
-        <v>33</v>
-      </c>
       <c r="G121" t="s">
-        <v>35</v>
-      </c>
-      <c r="H121">
+        <v>33</v>
+      </c>
+      <c r="H121" t="s">
+        <v>35</v>
+      </c>
+      <c r="I121">
         <v>7500000</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>23</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122" t="s">
-        <v>33</v>
+      <c r="C122">
+        <v>698</v>
       </c>
       <c r="D122" t="s">
-        <v>34</v>
-      </c>
-      <c r="E122">
+        <v>33</v>
+      </c>
+      <c r="E122" t="s">
+        <v>34</v>
+      </c>
+      <c r="F122">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>23</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
-      <c r="C123" t="s">
-        <v>33</v>
+      <c r="C123">
+        <v>759</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123">
+        <v>33</v>
+      </c>
+      <c r="E123" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123">
         <v>1250</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>23</v>
       </c>
       <c r="B124">
         <v>3</v>
       </c>
-      <c r="C124" t="s">
-        <v>33</v>
+      <c r="C124">
+        <v>884</v>
       </c>
       <c r="D124" t="s">
-        <v>35</v>
-      </c>
-      <c r="E124">
+        <v>33</v>
+      </c>
+      <c r="E124" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124">
         <v>10000</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>23</v>
       </c>
       <c r="B125">
         <v>4</v>
       </c>
-      <c r="C125" t="s">
-        <v>33</v>
+      <c r="C125">
+        <v>193</v>
       </c>
       <c r="D125" t="s">
-        <v>34</v>
-      </c>
-      <c r="E125">
+        <v>33</v>
+      </c>
+      <c r="E125" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125">
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>23</v>
       </c>
       <c r="B126">
         <v>5</v>
       </c>
-      <c r="C126" t="s">
-        <v>33</v>
+      <c r="C126">
+        <v>526</v>
       </c>
       <c r="D126" t="s">
-        <v>35</v>
-      </c>
-      <c r="E126">
+        <v>33</v>
+      </c>
+      <c r="E126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126">
         <v>2500</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>23</v>
       </c>
       <c r="B127">
         <v>6</v>
       </c>
-      <c r="C127" t="s">
-        <v>33</v>
+      <c r="C127">
+        <v>458</v>
       </c>
       <c r="D127" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127">
+        <v>33</v>
+      </c>
+      <c r="E127" t="s">
+        <v>35</v>
+      </c>
+      <c r="F127">
         <v>3750</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>23</v>
       </c>
       <c r="B128">
         <v>7</v>
       </c>
-      <c r="C128" t="s">
-        <v>33</v>
+      <c r="C128">
+        <v>819</v>
       </c>
       <c r="D128" t="s">
-        <v>34</v>
-      </c>
-      <c r="E128">
+        <v>33</v>
+      </c>
+      <c r="E128" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128">
         <v>220</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>23</v>
       </c>
       <c r="B129">
         <v>8</v>
       </c>
-      <c r="C129" t="s">
-        <v>33</v>
+      <c r="C129">
+        <v>131</v>
       </c>
       <c r="D129" t="s">
-        <v>35</v>
-      </c>
-      <c r="E129">
+        <v>33</v>
+      </c>
+      <c r="E129" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129">
         <v>10000</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>23</v>
       </c>
       <c r="B130">
         <v>9</v>
       </c>
-      <c r="C130" t="s">
-        <v>33</v>
+      <c r="C130">
+        <v>197</v>
       </c>
       <c r="D130" t="s">
-        <v>35</v>
-      </c>
-      <c r="E130">
+        <v>33</v>
+      </c>
+      <c r="E130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130">
         <v>6250</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>23</v>
       </c>
       <c r="B131">
         <v>10</v>
       </c>
-      <c r="C131" t="s">
-        <v>33</v>
+      <c r="C131">
+        <v>617</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
-      </c>
-      <c r="E131">
+        <v>33</v>
+      </c>
+      <c r="E131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131">
         <v>10000</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>23</v>
       </c>
       <c r="B132">
         <v>11</v>
       </c>
-      <c r="C132" t="s">
-        <v>33</v>
+      <c r="C132">
+        <v>670</v>
       </c>
       <c r="D132" t="s">
-        <v>34</v>
-      </c>
-      <c r="E132">
+        <v>33</v>
+      </c>
+      <c r="E132" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132">
         <v>300</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>23</v>
       </c>
       <c r="B133">
         <v>12</v>
       </c>
-      <c r="C133" t="s">
-        <v>33</v>
+      <c r="C133">
+        <v>697</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
-      </c>
-      <c r="E133">
+        <v>33</v>
+      </c>
+      <c r="E133" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133">
         <v>12500</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>23</v>
       </c>
       <c r="B134">
         <v>13</v>
       </c>
-      <c r="C134" t="s">
-        <v>33</v>
+      <c r="C134">
+        <v>413</v>
       </c>
       <c r="D134" t="s">
-        <v>35</v>
-      </c>
-      <c r="E134">
+        <v>33</v>
+      </c>
+      <c r="E134" t="s">
+        <v>35</v>
+      </c>
+      <c r="F134">
         <v>10000</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>23</v>
       </c>
       <c r="B135">
         <v>14</v>
       </c>
-      <c r="C135" t="s">
-        <v>33</v>
+      <c r="C135">
+        <v>180</v>
       </c>
       <c r="D135" t="s">
-        <v>34</v>
-      </c>
-      <c r="E135">
+        <v>33</v>
+      </c>
+      <c r="E135" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135">
         <v>500</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>23</v>
       </c>
       <c r="B136">
         <v>15</v>
       </c>
-      <c r="C136" t="s">
-        <v>33</v>
+      <c r="C136">
+        <v>987</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
-      </c>
-      <c r="E136">
+        <v>33</v>
+      </c>
+      <c r="E136" t="s">
+        <v>35</v>
+      </c>
+      <c r="F136">
         <v>25000</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>23</v>
       </c>
       <c r="B137">
         <v>16</v>
       </c>
-      <c r="C137" t="s">
-        <v>33</v>
+      <c r="C137">
+        <v>759</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
-      </c>
-      <c r="E137">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137">
         <v>10000</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>23</v>
       </c>
       <c r="B138">
         <v>17</v>
       </c>
-      <c r="C138" t="s">
-        <v>33</v>
+      <c r="C138">
+        <v>813</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E138">
+        <v>33</v>
+      </c>
+      <c r="E138" t="s">
+        <v>34</v>
+      </c>
+      <c r="F138">
         <v>1000</v>
       </c>
-      <c r="F138" t="s">
-        <v>33</v>
-      </c>
       <c r="G138" t="s">
-        <v>35</v>
-      </c>
-      <c r="H138">
+        <v>33</v>
+      </c>
+      <c r="H138" t="s">
+        <v>35</v>
+      </c>
+      <c r="I138">
         <v>7500000</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>24</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-      <c r="C139" t="s">
-        <v>33</v>
+      <c r="C139">
+        <v>571</v>
       </c>
       <c r="D139" t="s">
-        <v>34</v>
-      </c>
-      <c r="E139">
+        <v>33</v>
+      </c>
+      <c r="E139" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139">
         <v>120</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>24</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
-      <c r="C140" t="s">
-        <v>33</v>
+      <c r="C140">
+        <v>304</v>
       </c>
       <c r="D140" t="s">
-        <v>35</v>
-      </c>
-      <c r="E140">
+        <v>33</v>
+      </c>
+      <c r="E140" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140">
         <v>1250</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>24</v>
       </c>
       <c r="B141">
         <v>3</v>
       </c>
-      <c r="C141" t="s">
-        <v>33</v>
+      <c r="C141">
+        <v>836</v>
       </c>
       <c r="D141" t="s">
-        <v>35</v>
-      </c>
-      <c r="E141">
+        <v>33</v>
+      </c>
+      <c r="E141" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141">
         <v>10000</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>24</v>
       </c>
       <c r="B142">
         <v>4</v>
       </c>
-      <c r="C142" t="s">
-        <v>33</v>
+      <c r="C142">
+        <v>393</v>
       </c>
       <c r="D142" t="s">
-        <v>34</v>
-      </c>
-      <c r="E142">
+        <v>33</v>
+      </c>
+      <c r="E142" t="s">
+        <v>34</v>
+      </c>
+      <c r="F142">
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>24</v>
       </c>
       <c r="B143">
         <v>5</v>
       </c>
-      <c r="C143" t="s">
-        <v>33</v>
+      <c r="C143">
+        <v>213</v>
       </c>
       <c r="D143" t="s">
-        <v>35</v>
-      </c>
-      <c r="E143">
+        <v>33</v>
+      </c>
+      <c r="E143" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143">
         <v>2500</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>24</v>
       </c>
       <c r="B144">
         <v>6</v>
       </c>
-      <c r="C144" t="s">
-        <v>33</v>
+      <c r="C144">
+        <v>192</v>
       </c>
       <c r="D144" t="s">
-        <v>35</v>
-      </c>
-      <c r="E144">
+        <v>33</v>
+      </c>
+      <c r="E144" t="s">
+        <v>35</v>
+      </c>
+      <c r="F144">
         <v>3750</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>24</v>
       </c>
       <c r="B145">
         <v>7</v>
       </c>
-      <c r="C145" t="s">
-        <v>33</v>
+      <c r="C145">
+        <v>233</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
-      </c>
-      <c r="E145">
+        <v>33</v>
+      </c>
+      <c r="E145" t="s">
+        <v>34</v>
+      </c>
+      <c r="F145">
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>24</v>
       </c>
       <c r="B146">
         <v>8</v>
       </c>
-      <c r="C146" t="s">
-        <v>33</v>
+      <c r="C146">
+        <v>902</v>
       </c>
       <c r="D146" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146">
+        <v>33</v>
+      </c>
+      <c r="E146" t="s">
+        <v>35</v>
+      </c>
+      <c r="F146">
         <v>10000</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>24</v>
       </c>
       <c r="B147">
         <v>9</v>
       </c>
-      <c r="C147" t="s">
-        <v>33</v>
+      <c r="C147">
+        <v>503</v>
       </c>
       <c r="D147" t="s">
-        <v>35</v>
-      </c>
-      <c r="E147">
+        <v>33</v>
+      </c>
+      <c r="E147" t="s">
+        <v>35</v>
+      </c>
+      <c r="F147">
         <v>6250</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>24</v>
       </c>
       <c r="B148">
         <v>10</v>
       </c>
-      <c r="C148" t="s">
-        <v>33</v>
+      <c r="C148">
+        <v>549</v>
       </c>
       <c r="D148" t="s">
-        <v>35</v>
-      </c>
-      <c r="E148">
+        <v>33</v>
+      </c>
+      <c r="E148" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148">
         <v>10000</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>24</v>
       </c>
       <c r="B149">
         <v>11</v>
       </c>
-      <c r="C149" t="s">
-        <v>33</v>
+      <c r="C149">
+        <v>604</v>
       </c>
       <c r="D149" t="s">
-        <v>34</v>
-      </c>
-      <c r="E149">
+        <v>33</v>
+      </c>
+      <c r="E149" t="s">
+        <v>34</v>
+      </c>
+      <c r="F149">
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>24</v>
       </c>
       <c r="B150">
         <v>12</v>
       </c>
-      <c r="C150" t="s">
-        <v>33</v>
+      <c r="C150">
+        <v>424</v>
       </c>
       <c r="D150" t="s">
-        <v>35</v>
-      </c>
-      <c r="E150">
+        <v>33</v>
+      </c>
+      <c r="E150" t="s">
+        <v>35</v>
+      </c>
+      <c r="F150">
         <v>12500</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>24</v>
       </c>
       <c r="B151">
         <v>13</v>
       </c>
-      <c r="C151" t="s">
-        <v>33</v>
+      <c r="C151">
+        <v>317</v>
       </c>
       <c r="D151" t="s">
-        <v>35</v>
-      </c>
-      <c r="E151">
+        <v>33</v>
+      </c>
+      <c r="E151" t="s">
+        <v>35</v>
+      </c>
+      <c r="F151">
         <v>10000</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>24</v>
       </c>
       <c r="B152">
         <v>14</v>
       </c>
-      <c r="C152" t="s">
-        <v>33</v>
+      <c r="C152">
+        <v>638</v>
       </c>
       <c r="D152" t="s">
-        <v>34</v>
-      </c>
-      <c r="E152">
+        <v>33</v>
+      </c>
+      <c r="E152" t="s">
+        <v>34</v>
+      </c>
+      <c r="F152">
         <v>500</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>24</v>
       </c>
       <c r="B153">
         <v>15</v>
       </c>
-      <c r="C153" t="s">
-        <v>33</v>
+      <c r="C153">
+        <v>689</v>
       </c>
       <c r="D153" t="s">
-        <v>35</v>
-      </c>
-      <c r="E153">
+        <v>33</v>
+      </c>
+      <c r="E153" t="s">
+        <v>35</v>
+      </c>
+      <c r="F153">
         <v>25000</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>24</v>
       </c>
       <c r="B154">
         <v>16</v>
       </c>
-      <c r="C154" t="s">
-        <v>33</v>
+      <c r="C154">
+        <v>391</v>
       </c>
       <c r="D154" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154">
+        <v>33</v>
+      </c>
+      <c r="E154" t="s">
+        <v>35</v>
+      </c>
+      <c r="F154">
         <v>10000</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>24</v>
       </c>
       <c r="B155">
         <v>17</v>
       </c>
-      <c r="C155" t="s">
-        <v>33</v>
+      <c r="C155">
+        <v>493</v>
       </c>
       <c r="D155" t="s">
-        <v>35</v>
-      </c>
-      <c r="E155">
+        <v>33</v>
+      </c>
+      <c r="E155" t="s">
+        <v>35</v>
+      </c>
+      <c r="F155">
         <v>10000</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>24</v>
       </c>
       <c r="B156">
         <v>18</v>
       </c>
-      <c r="C156" t="s">
-        <v>33</v>
+      <c r="C156">
+        <v>849</v>
       </c>
       <c r="D156" t="s">
-        <v>34</v>
-      </c>
-      <c r="E156">
+        <v>33</v>
+      </c>
+      <c r="E156" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156">
         <v>1000</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>24</v>
       </c>
       <c r="B157">
         <v>19</v>
       </c>
-      <c r="C157" t="s">
-        <v>33</v>
+      <c r="C157">
+        <v>270</v>
       </c>
       <c r="D157" t="s">
-        <v>35</v>
-      </c>
-      <c r="E157">
+        <v>33</v>
+      </c>
+      <c r="E157" t="s">
+        <v>35</v>
+      </c>
+      <c r="F157">
         <v>33750</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>24</v>
       </c>
       <c r="B158">
         <v>20</v>
       </c>
-      <c r="C158" t="s">
-        <v>33</v>
+      <c r="C158">
+        <v>149</v>
       </c>
       <c r="D158" t="s">
-        <v>35</v>
-      </c>
-      <c r="E158">
+        <v>33</v>
+      </c>
+      <c r="E158" t="s">
+        <v>35</v>
+      </c>
+      <c r="F158">
         <v>10000</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>24</v>
       </c>
       <c r="B159">
         <v>21</v>
       </c>
-      <c r="C159" t="s">
-        <v>33</v>
+      <c r="C159">
+        <v>918</v>
       </c>
       <c r="D159" t="s">
-        <v>34</v>
-      </c>
-      <c r="E159">
+        <v>33</v>
+      </c>
+      <c r="E159" t="s">
+        <v>34</v>
+      </c>
+      <c r="F159">
         <v>1500</v>
       </c>
-      <c r="F159" t="s">
-        <v>33</v>
-      </c>
       <c r="G159" t="s">
-        <v>35</v>
-      </c>
-      <c r="H159">
+        <v>33</v>
+      </c>
+      <c r="H159" t="s">
+        <v>35</v>
+      </c>
+      <c r="I159">
         <v>7500000</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>25</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
-      <c r="C160" t="s">
-        <v>33</v>
+      <c r="C160">
+        <v>970</v>
       </c>
       <c r="D160" t="s">
-        <v>34</v>
-      </c>
-      <c r="E160">
+        <v>33</v>
+      </c>
+      <c r="E160" t="s">
+        <v>34</v>
+      </c>
+      <c r="F160">
         <v>120</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>25</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
-      <c r="C161" t="s">
-        <v>33</v>
+      <c r="C161">
+        <v>315</v>
       </c>
       <c r="D161" t="s">
-        <v>35</v>
-      </c>
-      <c r="E161">
+        <v>33</v>
+      </c>
+      <c r="E161" t="s">
+        <v>35</v>
+      </c>
+      <c r="F161">
         <v>1250</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>25</v>
       </c>
       <c r="B162">
         <v>3</v>
       </c>
-      <c r="C162" t="s">
-        <v>33</v>
+      <c r="C162">
+        <v>328</v>
       </c>
       <c r="D162" t="s">
-        <v>35</v>
-      </c>
-      <c r="E162">
+        <v>33</v>
+      </c>
+      <c r="E162" t="s">
+        <v>35</v>
+      </c>
+      <c r="F162">
         <v>10000</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>25</v>
       </c>
       <c r="B163">
         <v>4</v>
       </c>
-      <c r="C163" t="s">
-        <v>33</v>
+      <c r="C163">
+        <v>401</v>
       </c>
       <c r="D163" t="s">
-        <v>34</v>
-      </c>
-      <c r="E163">
+        <v>33</v>
+      </c>
+      <c r="E163" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163">
         <v>150</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>25</v>
       </c>
       <c r="B164">
         <v>5</v>
       </c>
-      <c r="C164" t="s">
-        <v>33</v>
+      <c r="C164">
+        <v>277</v>
       </c>
       <c r="D164" t="s">
-        <v>35</v>
-      </c>
-      <c r="E164">
+        <v>33</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
+      </c>
+      <c r="F164">
         <v>2500</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>25</v>
       </c>
       <c r="B165">
         <v>6</v>
       </c>
-      <c r="C165" t="s">
-        <v>33</v>
+      <c r="C165">
+        <v>322</v>
       </c>
       <c r="D165" t="s">
-        <v>35</v>
-      </c>
-      <c r="E165">
+        <v>33</v>
+      </c>
+      <c r="E165" t="s">
+        <v>35</v>
+      </c>
+      <c r="F165">
         <v>3750</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>25</v>
       </c>
       <c r="B166">
         <v>7</v>
       </c>
-      <c r="C166" t="s">
-        <v>33</v>
+      <c r="C166">
+        <v>221</v>
       </c>
       <c r="D166" t="s">
-        <v>34</v>
-      </c>
-      <c r="E166">
+        <v>33</v>
+      </c>
+      <c r="E166" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166">
         <v>220</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>25</v>
       </c>
       <c r="B167">
         <v>8</v>
       </c>
-      <c r="C167" t="s">
-        <v>33</v>
+      <c r="C167">
+        <v>815</v>
       </c>
       <c r="D167" t="s">
-        <v>35</v>
-      </c>
-      <c r="E167">
+        <v>33</v>
+      </c>
+      <c r="E167" t="s">
+        <v>35</v>
+      </c>
+      <c r="F167">
         <v>10000</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>25</v>
       </c>
       <c r="B168">
         <v>9</v>
       </c>
-      <c r="C168" t="s">
-        <v>33</v>
+      <c r="C168">
+        <v>950</v>
       </c>
       <c r="D168" t="s">
-        <v>35</v>
-      </c>
-      <c r="E168">
+        <v>33</v>
+      </c>
+      <c r="E168" t="s">
+        <v>35</v>
+      </c>
+      <c r="F168">
         <v>6250</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>25</v>
       </c>
       <c r="B169">
         <v>10</v>
       </c>
-      <c r="C169" t="s">
-        <v>33</v>
+      <c r="C169">
+        <v>853</v>
       </c>
       <c r="D169" t="s">
-        <v>35</v>
-      </c>
-      <c r="E169">
+        <v>33</v>
+      </c>
+      <c r="E169" t="s">
+        <v>35</v>
+      </c>
+      <c r="F169">
         <v>10000</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>25</v>
       </c>
       <c r="B170">
         <v>11</v>
       </c>
-      <c r="C170" t="s">
-        <v>33</v>
+      <c r="C170">
+        <v>716</v>
       </c>
       <c r="D170" t="s">
-        <v>34</v>
-      </c>
-      <c r="E170">
+        <v>33</v>
+      </c>
+      <c r="E170" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170">
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>25</v>
       </c>
       <c r="B171">
         <v>12</v>
       </c>
-      <c r="C171" t="s">
-        <v>33</v>
+      <c r="C171">
+        <v>761</v>
       </c>
       <c r="D171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E171">
+        <v>33</v>
+      </c>
+      <c r="E171" t="s">
+        <v>35</v>
+      </c>
+      <c r="F171">
         <v>12500</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>25</v>
       </c>
       <c r="B172">
         <v>13</v>
       </c>
-      <c r="C172" t="s">
-        <v>33</v>
+      <c r="C172">
+        <v>631</v>
       </c>
       <c r="D172" t="s">
-        <v>35</v>
-      </c>
-      <c r="E172">
+        <v>33</v>
+      </c>
+      <c r="E172" t="s">
+        <v>35</v>
+      </c>
+      <c r="F172">
         <v>10000</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>25</v>
       </c>
       <c r="B173">
         <v>14</v>
       </c>
-      <c r="C173" t="s">
-        <v>33</v>
+      <c r="C173">
+        <v>328</v>
       </c>
       <c r="D173" t="s">
-        <v>34</v>
-      </c>
-      <c r="E173">
+        <v>33</v>
+      </c>
+      <c r="E173" t="s">
+        <v>34</v>
+      </c>
+      <c r="F173">
         <v>500</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>25</v>
       </c>
       <c r="B174">
         <v>15</v>
       </c>
-      <c r="C174" t="s">
-        <v>33</v>
+      <c r="C174">
+        <v>876</v>
       </c>
       <c r="D174" t="s">
-        <v>35</v>
-      </c>
-      <c r="E174">
+        <v>33</v>
+      </c>
+      <c r="E174" t="s">
+        <v>35</v>
+      </c>
+      <c r="F174">
         <v>25000</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>25</v>
       </c>
       <c r="B175">
         <v>16</v>
       </c>
-      <c r="C175" t="s">
-        <v>33</v>
+      <c r="C175">
+        <v>378</v>
       </c>
       <c r="D175" t="s">
-        <v>35</v>
-      </c>
-      <c r="E175">
+        <v>33</v>
+      </c>
+      <c r="E175" t="s">
+        <v>35</v>
+      </c>
+      <c r="F175">
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>25</v>
       </c>
       <c r="B176">
         <v>17</v>
       </c>
-      <c r="C176" t="s">
-        <v>33</v>
+      <c r="C176">
+        <v>250</v>
       </c>
       <c r="D176" t="s">
-        <v>35</v>
-      </c>
-      <c r="E176">
+        <v>33</v>
+      </c>
+      <c r="E176" t="s">
+        <v>35</v>
+      </c>
+      <c r="F176">
         <v>10000</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>25</v>
       </c>
       <c r="B177">
         <v>18</v>
       </c>
-      <c r="C177" t="s">
-        <v>33</v>
+      <c r="C177">
+        <v>303</v>
       </c>
       <c r="D177" t="s">
-        <v>34</v>
-      </c>
-      <c r="E177">
+        <v>33</v>
+      </c>
+      <c r="E177" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177">
         <v>1000</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>25</v>
       </c>
       <c r="B178">
         <v>19</v>
       </c>
-      <c r="C178" t="s">
-        <v>33</v>
+      <c r="C178">
+        <v>541</v>
       </c>
       <c r="D178" t="s">
-        <v>35</v>
-      </c>
-      <c r="E178">
+        <v>33</v>
+      </c>
+      <c r="E178" t="s">
+        <v>35</v>
+      </c>
+      <c r="F178">
         <v>33750</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>25</v>
       </c>
       <c r="B179">
         <v>20</v>
       </c>
-      <c r="C179" t="s">
-        <v>33</v>
+      <c r="C179">
+        <v>875</v>
       </c>
       <c r="D179" t="s">
-        <v>35</v>
-      </c>
-      <c r="E179">
+        <v>33</v>
+      </c>
+      <c r="E179" t="s">
+        <v>35</v>
+      </c>
+      <c r="F179">
         <v>10000</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>25</v>
       </c>
       <c r="B180">
         <v>21</v>
       </c>
-      <c r="C180" t="s">
-        <v>33</v>
+      <c r="C180">
+        <v>165</v>
       </c>
       <c r="D180" t="s">
-        <v>34</v>
-      </c>
-      <c r="E180">
+        <v>33</v>
+      </c>
+      <c r="E180" t="s">
+        <v>34</v>
+      </c>
+      <c r="F180">
         <v>1500</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>25</v>
       </c>
       <c r="B181">
         <v>22</v>
       </c>
-      <c r="C181" t="s">
-        <v>33</v>
+      <c r="C181">
+        <v>705</v>
       </c>
       <c r="D181" t="s">
-        <v>35</v>
-      </c>
-      <c r="E181">
+        <v>33</v>
+      </c>
+      <c r="E181" t="s">
+        <v>35</v>
+      </c>
+      <c r="F181">
         <v>27500</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>25</v>
       </c>
       <c r="B182">
         <v>23</v>
       </c>
-      <c r="C182" t="s">
-        <v>33</v>
+      <c r="C182">
+        <v>580</v>
       </c>
       <c r="D182" t="s">
-        <v>35</v>
-      </c>
-      <c r="E182">
+        <v>33</v>
+      </c>
+      <c r="E182" t="s">
+        <v>35</v>
+      </c>
+      <c r="F182">
         <v>10000</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>25</v>
       </c>
       <c r="B183">
         <v>24</v>
       </c>
-      <c r="C183" t="s">
-        <v>33</v>
+      <c r="C183">
+        <v>156</v>
       </c>
       <c r="D183" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183">
+        <v>33</v>
+      </c>
+      <c r="E183" t="s">
+        <v>35</v>
+      </c>
+      <c r="F183">
         <v>36250</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>25</v>
       </c>
       <c r="B184">
         <v>25</v>
       </c>
-      <c r="C184" t="s">
-        <v>33</v>
+      <c r="C184">
+        <v>659</v>
       </c>
       <c r="D184" t="s">
-        <v>34</v>
-      </c>
-      <c r="E184">
+        <v>33</v>
+      </c>
+      <c r="E184" t="s">
+        <v>34</v>
+      </c>
+      <c r="F184">
         <v>2000</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>25</v>
       </c>
       <c r="B185">
         <v>26</v>
       </c>
-      <c r="C185" t="s">
-        <v>33</v>
+      <c r="C185">
+        <v>147</v>
       </c>
       <c r="D185" t="s">
-        <v>35</v>
-      </c>
-      <c r="E185">
+        <v>33</v>
+      </c>
+      <c r="E185" t="s">
+        <v>35</v>
+      </c>
+      <c r="F185">
         <v>50000</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>25</v>
       </c>
       <c r="B186">
         <v>27</v>
       </c>
-      <c r="C186" t="s">
-        <v>33</v>
+      <c r="C186">
+        <v>194</v>
       </c>
       <c r="D186" t="s">
-        <v>35</v>
-      </c>
-      <c r="E186">
+        <v>33</v>
+      </c>
+      <c r="E186" t="s">
+        <v>35</v>
+      </c>
+      <c r="F186">
         <v>10000</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>25</v>
       </c>
       <c r="B187">
         <v>28</v>
       </c>
-      <c r="C187" t="s">
-        <v>33</v>
+      <c r="C187">
+        <v>102</v>
       </c>
       <c r="D187" t="s">
-        <v>35</v>
-      </c>
-      <c r="E187">
+        <v>33</v>
+      </c>
+      <c r="E187" t="s">
+        <v>35</v>
+      </c>
+      <c r="F187">
         <v>10000</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>25</v>
       </c>
       <c r="B188">
         <v>29</v>
       </c>
-      <c r="C188" t="s">
-        <v>33</v>
+      <c r="C188">
+        <v>265</v>
       </c>
       <c r="D188" t="s">
-        <v>34</v>
-      </c>
-      <c r="E188">
+        <v>33</v>
+      </c>
+      <c r="E188" t="s">
+        <v>34</v>
+      </c>
+      <c r="F188">
         <v>3000</v>
       </c>
-      <c r="F188" t="s">
-        <v>33</v>
-      </c>
       <c r="G188" t="s">
-        <v>35</v>
-      </c>
-      <c r="H188">
+        <v>33</v>
+      </c>
+      <c r="H188" t="s">
+        <v>35</v>
+      </c>
+      <c r="I188">
         <v>7500000</v>
       </c>
     </row>
@@ -4449,7 +5018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDAE345-2D14-4E7B-B430-5F41B96D4F28}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Attendance.xlsx
+++ b/Excel/Attendance.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD4FBE9-B22B-4D38-BE30-5F7F41B962AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D50942-F910-47E6-A8CB-B9942FFBB226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceTypeTable" sheetId="1" r:id="rId1"/>
     <sheet name="AttendanceRewardTable" sheetId="2" r:id="rId2"/>
-    <sheet name="AttendanceEarlyTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="37">
   <si>
     <t>attendanceId|String</t>
   </si>
@@ -144,18 +143,6 @@
   </si>
   <si>
     <t>GO</t>
-  </si>
-  <si>
-    <t>rewardType|String</t>
-  </si>
-  <si>
-    <t>rewardValue|String</t>
-  </si>
-  <si>
-    <t>rewardCount|Int</t>
-  </si>
-  <si>
-    <t>attendanceGachaWeight|Float</t>
   </si>
   <si>
     <t>key|Int</t>
@@ -1112,7 +1099,7 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>27</v>
@@ -5006,120 +4993,6 @@
       </c>
       <c r="I188">
         <v>7500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDAE345-2D14-4E7B-B430-5F41B96D4F28}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>125000</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
-        <v>120</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>250000</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>375000</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Attendance.xlsx
+++ b/Excel/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D50942-F910-47E6-A8CB-B9942FFBB226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4272F3-3BE5-4961-8950-170FA846B573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="38">
   <si>
     <t>attendanceId|String</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>key|Int</t>
+  </si>
+  <si>
+    <t>DI</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1160,7 @@
         <v>35</v>
       </c>
       <c r="F3">
-        <v>1250</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1174,10 +1177,10 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1217,7 +1220,7 @@
         <v>35</v>
       </c>
       <c r="F6">
-        <v>2500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1234,10 +1237,10 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>3750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1277,7 +1280,7 @@
         <v>35</v>
       </c>
       <c r="F9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1294,10 +1297,10 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>6250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1317,7 +1320,7 @@
         <v>35</v>
       </c>
       <c r="F11">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1354,10 +1357,10 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>12500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1377,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="F14">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1394,10 +1397,10 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1494,10 +1497,10 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>33750</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1594,10 +1597,10 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F25">
-        <v>36250</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1683,10 +1686,10 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F29">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1743,10 +1746,10 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F32">
-        <v>3750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1803,10 +1806,10 @@
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F35">
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
@@ -1872,10 +1875,10 @@
         <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F38">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1932,10 +1935,10 @@
         <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F41">
-        <v>3750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1992,10 +1995,10 @@
         <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F44">
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -2061,10 +2064,10 @@
         <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F47">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2121,10 +2124,10 @@
         <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F50">
-        <v>3750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2181,10 +2184,10 @@
         <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F53">
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -2250,10 +2253,10 @@
         <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F56">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2310,10 +2313,10 @@
         <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F59">
-        <v>3750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2370,10 +2373,10 @@
         <v>33</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F62">
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -2439,10 +2442,10 @@
         <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F65">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -2499,10 +2502,10 @@
         <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F68">
-        <v>3750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2559,10 +2562,10 @@
         <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F71">
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -2817,10 +2820,10 @@
         <v>33</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F83">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -2877,10 +2880,10 @@
         <v>33</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F86">
-        <v>3750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -2937,7 +2940,7 @@
         <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F89">
         <v>500</v>
@@ -3006,10 +3009,10 @@
         <v>33</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F92">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -3066,10 +3069,10 @@
         <v>33</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F95">
-        <v>3750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -3126,7 +3129,7 @@
         <v>33</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F98">
         <v>500</v>
@@ -3195,10 +3198,10 @@
         <v>33</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F101">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -3255,10 +3258,10 @@
         <v>33</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F104">
-        <v>3750</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -3315,7 +3318,7 @@
         <v>33</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F107">
         <v>500</v>

--- a/Excel/Attendance.xlsx
+++ b/Excel/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4272F3-3BE5-4961-8950-170FA846B573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706DD9E1-8030-4777-8AFA-F75DF71C638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="41">
   <si>
     <t>attendanceId|String</t>
   </si>
@@ -118,9 +118,6 @@
     <t>num|Int</t>
   </si>
   <si>
-    <t>rewardType1|String</t>
-  </si>
-  <si>
     <t>rewardValue1|String</t>
   </si>
   <si>
@@ -149,6 +146,18 @@
   </si>
   <si>
     <t>DI</t>
+  </si>
+  <si>
+    <t>fr2</t>
+  </si>
+  <si>
+    <t>보상이상</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Equip033001</t>
   </si>
 </sst>
 </file>
@@ -512,9 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734EAA37-9744-43A3-8D46-4901EB0777C4}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -558,10 +569,10 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3024000</v>
+        <v>864000</v>
       </c>
       <c r="D2">
         <v>2000</v>
@@ -590,13 +601,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>1641600</v>
+        <v>1728000</v>
       </c>
       <c r="D3">
         <v>2000</v>
@@ -617,15 +628,15 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -652,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -660,7 +671,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -687,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -695,7 +706,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -722,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -730,7 +741,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -757,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -765,7 +776,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -792,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -800,7 +811,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -827,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -835,7 +846,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -862,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -870,7 +881,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -897,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -905,7 +916,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -932,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -940,48 +951,48 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>1296000</v>
+        <v>1641600</v>
       </c>
       <c r="D13">
-        <v>2022</v>
+        <v>2000</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2022</v>
+        <v>3000</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>2332800</v>
+        <v>1296000</v>
       </c>
       <c r="D14">
         <v>2022</v>
@@ -990,16 +1001,16 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>2022</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -1010,22 +1021,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>2678400</v>
+        <v>2332800</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G15">
         <v>2022</v>
@@ -1034,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="I15">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -1045,13 +1056,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>3369600</v>
+        <v>2678400</v>
       </c>
       <c r="D16">
         <v>2022</v>
@@ -1060,21 +1071,56 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>2022</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>3369600</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>2022</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1086,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F33536F-1770-4278-9AE6-CEFB86A0735C}">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1102,25 +1148,25 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1134,10 +1180,10 @@
         <v>698</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>120</v>
@@ -1154,10 +1200,10 @@
         <v>829</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>12500</v>
@@ -1174,10 +1220,10 @@
         <v>728</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -1194,10 +1240,10 @@
         <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>150</v>
@@ -1214,170 +1260,170 @@
         <v>798</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>25000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>272</v>
+        <v>643</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>758</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>808</v>
+        <v>665</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>128</v>
+        <v>937</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>100000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>645</v>
+        <v>357</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>441</v>
+        <v>595</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>100000</v>
@@ -1385,251 +1431,242 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>994</v>
+        <v>659</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>967</v>
+        <v>633</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>25000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
         <v>11</v>
       </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
       <c r="C17">
-        <v>577</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <v>10000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>669</v>
+        <v>810</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>10000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>306</v>
+        <v>566</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>467</v>
+        <v>383</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F20">
-        <v>600</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>600</v>
+        <v>513</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21">
-        <v>10000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>582</v>
+        <v>446</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>1500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>254</v>
+        <v>470</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23">
-        <v>27500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>494</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25">
-        <v>1500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>239</v>
+        <v>434</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26">
-        <v>2000</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26">
-        <v>10000000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1637,19 +1674,19 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>383</v>
+        <v>629</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
       </c>
       <c r="F27">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1657,168 +1694,168 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>513</v>
+        <v>733</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28">
-        <v>1250</v>
+        <v>500</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>5000000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>446</v>
+        <v>228</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>470</v>
+        <v>373</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
         <v>34</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31">
-        <v>2500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>218</v>
+        <v>732</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F32">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>434</v>
+        <v>194</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
         <v>34</v>
       </c>
       <c r="F33">
-        <v>220</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>733</v>
+        <v>821</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F35">
-        <v>500</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35">
-        <v>5000000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1826,19 +1863,19 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>228</v>
+        <v>922</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
       <c r="F36">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1846,168 +1883,168 @@
         <v>13</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>373</v>
+        <v>844</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37">
-        <v>1250</v>
+        <v>500</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37">
+        <v>5000000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>447</v>
+        <v>636</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>732</v>
+        <v>334</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
         <v>34</v>
       </c>
       <c r="F39">
-        <v>150</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>194</v>
+        <v>858</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40">
-        <v>2500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>652</v>
+        <v>965</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F41">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>821</v>
+        <v>657</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
         <v>34</v>
       </c>
       <c r="F42">
-        <v>220</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>922</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F43">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>844</v>
+        <v>798</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F44">
-        <v>500</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44">
-        <v>5000000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2015,19 +2052,19 @@
         <v>14</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>636</v>
+        <v>803</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
         <v>34</v>
       </c>
       <c r="F45">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2035,168 +2072,168 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>334</v>
+        <v>512</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F46">
-        <v>1250</v>
+        <v>500</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46">
+        <v>5000000</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>858</v>
+        <v>450</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>965</v>
+        <v>645</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
         <v>34</v>
       </c>
       <c r="F48">
-        <v>150</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>657</v>
+        <v>921</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49">
-        <v>2500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>160</v>
+        <v>586</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F50">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>798</v>
+        <v>864</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
         <v>34</v>
       </c>
       <c r="F51">
-        <v>220</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>803</v>
+        <v>374</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F52">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>512</v>
+        <v>980</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F53">
-        <v>500</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" t="s">
-        <v>35</v>
-      </c>
-      <c r="I53">
-        <v>5000000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2204,19 +2241,19 @@
         <v>15</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>450</v>
+        <v>666</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
         <v>34</v>
       </c>
       <c r="F54">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2224,168 +2261,168 @@
         <v>15</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>645</v>
+        <v>863</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F55">
-        <v>1250</v>
+        <v>500</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55">
+        <v>5000000</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>921</v>
+        <v>760</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F56">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>586</v>
+        <v>805</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
         <v>34</v>
       </c>
       <c r="F57">
-        <v>150</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>864</v>
+        <v>537</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58">
-        <v>2500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>374</v>
+        <v>969</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F59">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>980</v>
+        <v>620</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
         <v>34</v>
       </c>
       <c r="F60">
-        <v>220</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61">
-        <v>666</v>
+        <v>714</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F61">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>863</v>
+        <v>478</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F62">
-        <v>500</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62" t="s">
-        <v>35</v>
-      </c>
-      <c r="I62">
-        <v>5000000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2393,19 +2430,19 @@
         <v>16</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C63">
-        <v>760</v>
+        <v>390</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
         <v>34</v>
       </c>
       <c r="F63">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2413,56 +2450,65 @@
         <v>16</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>805</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F64">
-        <v>1250</v>
+        <v>500</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64">
+        <v>5000000</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>537</v>
+        <v>668</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F65">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>969</v>
+        <v>624</v>
       </c>
       <c r="D66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66">
         <v>150</v>
@@ -2470,111 +2516,102 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>620</v>
+        <v>426</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F67">
-        <v>2500</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>714</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F68">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>478</v>
+        <v>221</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F69">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>390</v>
+        <v>504</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F70">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F71">
-        <v>500</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71" t="s">
-        <v>35</v>
-      </c>
-      <c r="I71">
-        <v>5000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -2582,19 +2619,19 @@
         <v>17</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>668</v>
+        <v>290</v>
       </c>
       <c r="D72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F72">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -2602,168 +2639,168 @@
         <v>17</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>624</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73">
-        <v>150</v>
+        <v>500</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73">
+        <v>5000000</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F74">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E75" t="s">
         <v>34</v>
       </c>
       <c r="F75">
-        <v>250</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>221</v>
+        <v>700</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F76">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="D77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F77">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78">
-        <v>139</v>
+        <v>952</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
         <v>34</v>
       </c>
       <c r="F78">
-        <v>250</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>290</v>
+        <v>444</v>
       </c>
       <c r="D79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F79">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C80">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F80">
-        <v>500</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" t="s">
-        <v>35</v>
-      </c>
-      <c r="I80">
-        <v>5000000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -2771,19 +2808,19 @@
         <v>18</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C81">
-        <v>455</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E81" t="s">
         <v>34</v>
       </c>
       <c r="F81">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -2791,168 +2828,168 @@
         <v>18</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>188</v>
+        <v>755</v>
       </c>
       <c r="D82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F82">
-        <v>1250</v>
+        <v>500</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82">
+        <v>5000000</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>700</v>
+        <v>752</v>
       </c>
       <c r="D83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F83">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>534</v>
+        <v>378</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E84" t="s">
         <v>34</v>
       </c>
       <c r="F84">
-        <v>150</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>952</v>
+        <v>750</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F85">
-        <v>2500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>444</v>
+        <v>773</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F86">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>111</v>
+        <v>760</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E87" t="s">
         <v>34</v>
       </c>
       <c r="F87">
-        <v>220</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>256</v>
+        <v>529</v>
       </c>
       <c r="D88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F88">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C89">
-        <v>755</v>
+        <v>816</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F89">
-        <v>500</v>
-      </c>
-      <c r="G89" t="s">
-        <v>33</v>
-      </c>
-      <c r="H89" t="s">
-        <v>35</v>
-      </c>
-      <c r="I89">
-        <v>5000000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -2960,19 +2997,19 @@
         <v>19</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C90">
-        <v>752</v>
+        <v>625</v>
       </c>
       <c r="D90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E90" t="s">
         <v>34</v>
       </c>
       <c r="F90">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -2980,168 +3017,168 @@
         <v>19</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>378</v>
+        <v>923</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91">
-        <v>1250</v>
+        <v>500</v>
+      </c>
+      <c r="G91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91">
+        <v>5000000</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>750</v>
+        <v>672</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F92">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>773</v>
+        <v>878</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E93" t="s">
         <v>34</v>
       </c>
       <c r="F93">
-        <v>150</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>760</v>
+        <v>672</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F94">
-        <v>2500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>529</v>
+        <v>113</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F95">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E96" t="s">
         <v>34</v>
       </c>
       <c r="F96">
-        <v>220</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="D97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F97">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>923</v>
+        <v>979</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F98">
-        <v>500</v>
-      </c>
-      <c r="G98" t="s">
-        <v>33</v>
-      </c>
-      <c r="H98" t="s">
-        <v>35</v>
-      </c>
-      <c r="I98">
-        <v>5000000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -3149,19 +3186,19 @@
         <v>20</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>672</v>
+        <v>559</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E99" t="s">
         <v>34</v>
       </c>
       <c r="F99">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -3169,56 +3206,65 @@
         <v>20</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F100">
-        <v>1250</v>
+        <v>500</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100">
+        <v>5000000</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>672</v>
+        <v>271</v>
       </c>
       <c r="D101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F101">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102">
         <v>150</v>
@@ -3226,111 +3272,102 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>823</v>
+        <v>970</v>
       </c>
       <c r="D103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F103">
-        <v>2500</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C104">
-        <v>597</v>
+        <v>995</v>
       </c>
       <c r="D104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F104">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105">
-        <v>979</v>
+        <v>788</v>
       </c>
       <c r="D105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106">
-        <v>559</v>
+        <v>297</v>
       </c>
       <c r="D106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F106">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C107">
-        <v>895</v>
+        <v>614</v>
       </c>
       <c r="D107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F107">
-        <v>500</v>
-      </c>
-      <c r="G107" t="s">
-        <v>33</v>
-      </c>
-      <c r="H107" t="s">
-        <v>35</v>
-      </c>
-      <c r="I107">
-        <v>5000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -3338,19 +3375,19 @@
         <v>21</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C108">
-        <v>271</v>
+        <v>882</v>
       </c>
       <c r="D108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F108">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -3358,277 +3395,277 @@
         <v>21</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C109">
-        <v>293</v>
+        <v>839</v>
       </c>
       <c r="D109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F109">
-        <v>150</v>
+        <v>500</v>
+      </c>
+      <c r="G109" t="s">
+        <v>32</v>
+      </c>
+      <c r="H109" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109">
+        <v>5000000</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>970</v>
+        <v>501</v>
       </c>
       <c r="D110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F110">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>995</v>
+        <v>300</v>
       </c>
       <c r="D111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E111" t="s">
         <v>34</v>
       </c>
       <c r="F111">
-        <v>250</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C112">
-        <v>788</v>
+        <v>229</v>
       </c>
       <c r="D112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E112" t="s">
         <v>34</v>
       </c>
       <c r="F112">
-        <v>160</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C113">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="D113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F113">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>614</v>
+        <v>355</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F114">
-        <v>250</v>
+        <v>2000</v>
+      </c>
+      <c r="G114" t="s">
+        <v>32</v>
+      </c>
+      <c r="H114" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114">
+        <v>7500000</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>882</v>
+        <v>698</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F115">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C116">
-        <v>839</v>
+        <v>759</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E116" t="s">
         <v>34</v>
       </c>
       <c r="F116">
-        <v>500</v>
-      </c>
-      <c r="G116" t="s">
-        <v>33</v>
-      </c>
-      <c r="H116" t="s">
-        <v>35</v>
-      </c>
-      <c r="I116">
-        <v>5000000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>501</v>
+        <v>884</v>
       </c>
       <c r="D117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E117" t="s">
         <v>34</v>
       </c>
       <c r="F117">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C118">
-        <v>300</v>
+        <v>193</v>
       </c>
       <c r="D118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F118">
-        <v>1250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>229</v>
+        <v>526</v>
       </c>
       <c r="D119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F119">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C120">
-        <v>186</v>
+        <v>458</v>
       </c>
       <c r="D120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E120" t="s">
         <v>34</v>
       </c>
       <c r="F120">
-        <v>150</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121">
-        <v>355</v>
+        <v>819</v>
       </c>
       <c r="D121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F121">
-        <v>2000</v>
-      </c>
-      <c r="G121" t="s">
-        <v>33</v>
-      </c>
-      <c r="H121" t="s">
-        <v>35</v>
-      </c>
-      <c r="I121">
-        <v>7500000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -3636,19 +3673,19 @@
         <v>23</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>698</v>
+        <v>131</v>
       </c>
       <c r="D122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E122" t="s">
         <v>34</v>
       </c>
       <c r="F122">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -3656,19 +3693,19 @@
         <v>23</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C123">
-        <v>759</v>
+        <v>197</v>
       </c>
       <c r="D123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F123">
-        <v>1250</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -3676,16 +3713,16 @@
         <v>23</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C124">
-        <v>884</v>
+        <v>617</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F124">
         <v>10000</v>
@@ -3696,19 +3733,19 @@
         <v>23</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C125">
-        <v>193</v>
+        <v>670</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F125">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -3716,19 +3753,19 @@
         <v>23</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C126">
-        <v>526</v>
+        <v>697</v>
       </c>
       <c r="D126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F126">
-        <v>2500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -3736,19 +3773,19 @@
         <v>23</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C127">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F127">
-        <v>3750</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -3756,19 +3793,19 @@
         <v>23</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C128">
-        <v>819</v>
+        <v>180</v>
       </c>
       <c r="D128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F128">
-        <v>220</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -3776,19 +3813,19 @@
         <v>23</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C129">
-        <v>131</v>
+        <v>987</v>
       </c>
       <c r="D129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F129">
-        <v>10000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -3796,19 +3833,19 @@
         <v>23</v>
       </c>
       <c r="B130">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C130">
-        <v>197</v>
+        <v>759</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F130">
-        <v>6250</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -3816,76 +3853,85 @@
         <v>23</v>
       </c>
       <c r="B131">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C131">
-        <v>617</v>
+        <v>813</v>
       </c>
       <c r="D131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F131">
-        <v>10000</v>
+        <v>1000</v>
+      </c>
+      <c r="G131" t="s">
+        <v>32</v>
+      </c>
+      <c r="H131" t="s">
+        <v>34</v>
+      </c>
+      <c r="I131">
+        <v>7500000</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B132">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>670</v>
+        <v>571</v>
       </c>
       <c r="D132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F132">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B133">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>697</v>
+        <v>304</v>
       </c>
       <c r="D133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F133">
-        <v>12500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B134">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C134">
-        <v>413</v>
+        <v>836</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F134">
         <v>10000</v>
@@ -3893,91 +3939,82 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B135">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="D135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F135">
-        <v>500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B136">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C136">
-        <v>987</v>
+        <v>213</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F136">
-        <v>25000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B137">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C137">
-        <v>759</v>
+        <v>192</v>
       </c>
       <c r="D137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F137">
-        <v>10000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B138">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>813</v>
+        <v>233</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F138">
-        <v>1000</v>
-      </c>
-      <c r="G138" t="s">
-        <v>33</v>
-      </c>
-      <c r="H138" t="s">
-        <v>35</v>
-      </c>
-      <c r="I138">
-        <v>7500000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -3985,19 +4022,19 @@
         <v>24</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C139">
-        <v>571</v>
+        <v>902</v>
       </c>
       <c r="D139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E139" t="s">
         <v>34</v>
       </c>
       <c r="F139">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -4005,19 +4042,19 @@
         <v>24</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C140">
-        <v>304</v>
+        <v>503</v>
       </c>
       <c r="D140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F140">
-        <v>1250</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -4025,16 +4062,16 @@
         <v>24</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C141">
-        <v>836</v>
+        <v>549</v>
       </c>
       <c r="D141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F141">
         <v>10000</v>
@@ -4045,19 +4082,19 @@
         <v>24</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C142">
-        <v>393</v>
+        <v>604</v>
       </c>
       <c r="D142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F142">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -4065,19 +4102,19 @@
         <v>24</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C143">
-        <v>213</v>
+        <v>424</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F143">
-        <v>2500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -4085,19 +4122,19 @@
         <v>24</v>
       </c>
       <c r="B144">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C144">
-        <v>192</v>
+        <v>317</v>
       </c>
       <c r="D144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F144">
-        <v>3750</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -4105,19 +4142,19 @@
         <v>24</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C145">
-        <v>233</v>
+        <v>638</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F145">
-        <v>220</v>
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -4125,19 +4162,19 @@
         <v>24</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C146">
-        <v>902</v>
+        <v>689</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F146">
-        <v>10000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -4145,19 +4182,19 @@
         <v>24</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C147">
-        <v>503</v>
+        <v>391</v>
       </c>
       <c r="D147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F147">
-        <v>6250</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -4165,16 +4202,16 @@
         <v>24</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C148">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="D148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F148">
         <v>10000</v>
@@ -4185,19 +4222,19 @@
         <v>24</v>
       </c>
       <c r="B149">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C149">
-        <v>604</v>
+        <v>849</v>
       </c>
       <c r="D149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F149">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -4205,19 +4242,19 @@
         <v>24</v>
       </c>
       <c r="B150">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C150">
-        <v>424</v>
+        <v>270</v>
       </c>
       <c r="D150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F150">
-        <v>12500</v>
+        <v>33750</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -4225,16 +4262,16 @@
         <v>24</v>
       </c>
       <c r="B151">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C151">
-        <v>317</v>
+        <v>149</v>
       </c>
       <c r="D151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F151">
         <v>10000</v>
@@ -4245,76 +4282,85 @@
         <v>24</v>
       </c>
       <c r="B152">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C152">
-        <v>638</v>
+        <v>918</v>
       </c>
       <c r="D152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F152">
-        <v>500</v>
+        <v>1500</v>
+      </c>
+      <c r="G152" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" t="s">
+        <v>34</v>
+      </c>
+      <c r="I152">
+        <v>7500000</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B153">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>689</v>
+        <v>970</v>
       </c>
       <c r="D153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F153">
-        <v>25000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B154">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="D154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F154">
-        <v>10000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B155">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>493</v>
+        <v>328</v>
       </c>
       <c r="D155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F155">
         <v>10000</v>
@@ -4322,91 +4368,82 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B156">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>849</v>
+        <v>401</v>
       </c>
       <c r="D156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F156">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B157">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F157">
-        <v>33750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B158">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C158">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c r="D158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F158">
-        <v>10000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B159">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C159">
-        <v>918</v>
+        <v>221</v>
       </c>
       <c r="D159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F159">
-        <v>1500</v>
-      </c>
-      <c r="G159" t="s">
-        <v>33</v>
-      </c>
-      <c r="H159" t="s">
-        <v>35</v>
-      </c>
-      <c r="I159">
-        <v>7500000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -4414,19 +4451,19 @@
         <v>25</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C160">
-        <v>970</v>
+        <v>815</v>
       </c>
       <c r="D160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E160" t="s">
         <v>34</v>
       </c>
       <c r="F160">
-        <v>120</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4434,19 +4471,19 @@
         <v>25</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>315</v>
+        <v>950</v>
       </c>
       <c r="D161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F161">
-        <v>1250</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4454,16 +4491,16 @@
         <v>25</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C162">
-        <v>328</v>
+        <v>853</v>
       </c>
       <c r="D162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F162">
         <v>10000</v>
@@ -4474,19 +4511,19 @@
         <v>25</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C163">
-        <v>401</v>
+        <v>716</v>
       </c>
       <c r="D163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F163">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4494,19 +4531,19 @@
         <v>25</v>
       </c>
       <c r="B164">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C164">
-        <v>277</v>
+        <v>761</v>
       </c>
       <c r="D164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F164">
-        <v>2500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4514,19 +4551,19 @@
         <v>25</v>
       </c>
       <c r="B165">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>322</v>
+        <v>631</v>
       </c>
       <c r="D165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F165">
-        <v>3750</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4534,19 +4571,19 @@
         <v>25</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C166">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="D166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F166">
-        <v>220</v>
+        <v>500</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4554,19 +4591,19 @@
         <v>25</v>
       </c>
       <c r="B167">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C167">
-        <v>815</v>
+        <v>876</v>
       </c>
       <c r="D167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F167">
-        <v>10000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4574,19 +4611,19 @@
         <v>25</v>
       </c>
       <c r="B168">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C168">
-        <v>950</v>
+        <v>378</v>
       </c>
       <c r="D168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F168">
-        <v>6250</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4594,16 +4631,16 @@
         <v>25</v>
       </c>
       <c r="B169">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C169">
-        <v>853</v>
+        <v>250</v>
       </c>
       <c r="D169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F169">
         <v>10000</v>
@@ -4614,19 +4651,19 @@
         <v>25</v>
       </c>
       <c r="B170">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C170">
-        <v>716</v>
+        <v>303</v>
       </c>
       <c r="D170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F170">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4634,19 +4671,19 @@
         <v>25</v>
       </c>
       <c r="B171">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C171">
-        <v>761</v>
+        <v>541</v>
       </c>
       <c r="D171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F171">
-        <v>12500</v>
+        <v>33750</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4654,16 +4691,16 @@
         <v>25</v>
       </c>
       <c r="B172">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C172">
-        <v>631</v>
+        <v>875</v>
       </c>
       <c r="D172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F172">
         <v>10000</v>
@@ -4674,19 +4711,19 @@
         <v>25</v>
       </c>
       <c r="B173">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C173">
-        <v>328</v>
+        <v>165</v>
       </c>
       <c r="D173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F173">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -4694,19 +4731,19 @@
         <v>25</v>
       </c>
       <c r="B174">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C174">
-        <v>876</v>
+        <v>705</v>
       </c>
       <c r="D174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F174">
-        <v>25000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -4714,16 +4751,16 @@
         <v>25</v>
       </c>
       <c r="B175">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C175">
-        <v>378</v>
+        <v>580</v>
       </c>
       <c r="D175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F175">
         <v>10000</v>
@@ -4734,19 +4771,19 @@
         <v>25</v>
       </c>
       <c r="B176">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C176">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="D176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F176">
-        <v>10000</v>
+        <v>36250</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -4754,19 +4791,19 @@
         <v>25</v>
       </c>
       <c r="B177">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C177">
-        <v>303</v>
+        <v>659</v>
       </c>
       <c r="D177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F177">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -4774,19 +4811,19 @@
         <v>25</v>
       </c>
       <c r="B178">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C178">
-        <v>541</v>
+        <v>147</v>
       </c>
       <c r="D178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F178">
-        <v>33750</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -4794,16 +4831,16 @@
         <v>25</v>
       </c>
       <c r="B179">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C179">
-        <v>875</v>
+        <v>194</v>
       </c>
       <c r="D179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F179">
         <v>10000</v>
@@ -4814,19 +4851,19 @@
         <v>25</v>
       </c>
       <c r="B180">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C180">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="D180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E180" t="s">
         <v>34</v>
       </c>
       <c r="F180">
-        <v>1500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -4834,167 +4871,27 @@
         <v>25</v>
       </c>
       <c r="B181">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C181">
-        <v>705</v>
+        <v>265</v>
       </c>
       <c r="D181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E181" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F181">
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>25</v>
-      </c>
-      <c r="B182">
-        <v>23</v>
-      </c>
-      <c r="C182">
-        <v>580</v>
-      </c>
-      <c r="D182" t="s">
-        <v>33</v>
-      </c>
-      <c r="E182" t="s">
-        <v>35</v>
-      </c>
-      <c r="F182">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>25</v>
-      </c>
-      <c r="B183">
-        <v>24</v>
-      </c>
-      <c r="C183">
-        <v>156</v>
-      </c>
-      <c r="D183" t="s">
-        <v>33</v>
-      </c>
-      <c r="E183" t="s">
-        <v>35</v>
-      </c>
-      <c r="F183">
-        <v>36250</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>25</v>
-      </c>
-      <c r="B184">
-        <v>25</v>
-      </c>
-      <c r="C184">
-        <v>659</v>
-      </c>
-      <c r="D184" t="s">
-        <v>33</v>
-      </c>
-      <c r="E184" t="s">
-        <v>34</v>
-      </c>
-      <c r="F184">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>25</v>
-      </c>
-      <c r="B185">
-        <v>26</v>
-      </c>
-      <c r="C185">
-        <v>147</v>
-      </c>
-      <c r="D185" t="s">
-        <v>33</v>
-      </c>
-      <c r="E185" t="s">
-        <v>35</v>
-      </c>
-      <c r="F185">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>25</v>
-      </c>
-      <c r="B186">
-        <v>27</v>
-      </c>
-      <c r="C186">
-        <v>194</v>
-      </c>
-      <c r="D186" t="s">
-        <v>33</v>
-      </c>
-      <c r="E186" t="s">
-        <v>35</v>
-      </c>
-      <c r="F186">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>25</v>
-      </c>
-      <c r="B187">
-        <v>28</v>
-      </c>
-      <c r="C187">
-        <v>102</v>
-      </c>
-      <c r="D187" t="s">
-        <v>33</v>
-      </c>
-      <c r="E187" t="s">
-        <v>35</v>
-      </c>
-      <c r="F187">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>25</v>
-      </c>
-      <c r="B188">
-        <v>29</v>
-      </c>
-      <c r="C188">
-        <v>265</v>
-      </c>
-      <c r="D188" t="s">
-        <v>33</v>
-      </c>
-      <c r="E188" t="s">
-        <v>34</v>
-      </c>
-      <c r="F188">
         <v>3000</v>
       </c>
-      <c r="G188" t="s">
-        <v>33</v>
-      </c>
-      <c r="H188" t="s">
-        <v>35</v>
-      </c>
-      <c r="I188">
+      <c r="G181" t="s">
+        <v>32</v>
+      </c>
+      <c r="H181" t="s">
+        <v>34</v>
+      </c>
+      <c r="I181">
         <v>7500000</v>
       </c>
     </row>

--- a/Excel/Attendance.xlsx
+++ b/Excel/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706DD9E1-8030-4777-8AFA-F75DF71C638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EDC10C-5BA3-4044-B5F3-723A0B10E89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceTypeTable" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
     <t>it</t>
   </si>
   <si>
-    <t>Equip033001</t>
+    <t>Equip033101</t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F33536F-1770-4278-9AE6-CEFB86A0735C}">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/Attendance.xlsx
+++ b/Excel/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EDC10C-5BA3-4044-B5F3-723A0B10E89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891284F9-2356-4953-8853-5C808640E2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceTypeTable" sheetId="1" r:id="rId1"/>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>12500</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1246,7 +1246,7 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>150</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
         <v>34</v>
       </c>
       <c r="F7">
-        <v>20000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
         <v>33</v>
       </c>
       <c r="F8">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
         <v>34</v>
       </c>
       <c r="F11">
-        <v>25000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1386,7 +1386,7 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>33</v>
       </c>
       <c r="F13">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1426,7 +1426,7 @@
         <v>34</v>
       </c>
       <c r="F14">
-        <v>100000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>500</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>34</v>
       </c>
       <c r="F16">
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
         <v>33</v>
       </c>
       <c r="F17">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1506,7 +1506,7 @@
         <v>36</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1566,7 +1566,7 @@
         <v>34</v>
       </c>
       <c r="F21">
-        <v>1250</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1606,7 +1606,7 @@
         <v>33</v>
       </c>
       <c r="F23">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1626,7 +1626,7 @@
         <v>34</v>
       </c>
       <c r="F24">
-        <v>2500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1646,7 +1646,7 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1666,7 +1666,7 @@
         <v>33</v>
       </c>
       <c r="F26">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>34</v>
       </c>
       <c r="F27">
-        <v>10000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1706,7 +1706,7 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -1755,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="F30">
-        <v>1250</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1795,7 +1795,7 @@
         <v>33</v>
       </c>
       <c r="F32">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1815,7 +1815,7 @@
         <v>34</v>
       </c>
       <c r="F33">
-        <v>2500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1835,7 +1835,7 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1855,7 +1855,7 @@
         <v>33</v>
       </c>
       <c r="F35">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1875,7 +1875,7 @@
         <v>34</v>
       </c>
       <c r="F36">
-        <v>10000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1895,7 +1895,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -1944,7 +1944,7 @@
         <v>34</v>
       </c>
       <c r="F39">
-        <v>1250</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1984,7 +1984,7 @@
         <v>33</v>
       </c>
       <c r="F41">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2004,7 +2004,7 @@
         <v>34</v>
       </c>
       <c r="F42">
-        <v>2500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2024,7 +2024,7 @@
         <v>36</v>
       </c>
       <c r="F43">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2044,7 +2044,7 @@
         <v>33</v>
       </c>
       <c r="F44">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2064,7 +2064,7 @@
         <v>34</v>
       </c>
       <c r="F45">
-        <v>10000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2084,7 +2084,7 @@
         <v>36</v>
       </c>
       <c r="F46">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -2133,7 +2133,7 @@
         <v>34</v>
       </c>
       <c r="F48">
-        <v>1250</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2173,7 +2173,7 @@
         <v>33</v>
       </c>
       <c r="F50">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2193,7 +2193,7 @@
         <v>34</v>
       </c>
       <c r="F51">
-        <v>2500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2213,7 +2213,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2233,7 +2233,7 @@
         <v>33</v>
       </c>
       <c r="F53">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2253,7 +2253,7 @@
         <v>34</v>
       </c>
       <c r="F54">
-        <v>10000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2273,7 +2273,7 @@
         <v>36</v>
       </c>
       <c r="F55">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
@@ -2322,7 +2322,7 @@
         <v>34</v>
       </c>
       <c r="F57">
-        <v>1250</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2362,7 +2362,7 @@
         <v>33</v>
       </c>
       <c r="F59">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2382,7 +2382,7 @@
         <v>34</v>
       </c>
       <c r="F60">
-        <v>2500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2402,7 +2402,7 @@
         <v>36</v>
       </c>
       <c r="F61">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2422,7 +2422,7 @@
         <v>33</v>
       </c>
       <c r="F62">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2442,7 +2442,7 @@
         <v>34</v>
       </c>
       <c r="F63">
-        <v>10000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2462,7 +2462,7 @@
         <v>36</v>
       </c>
       <c r="F64">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
@@ -2508,10 +2508,10 @@
         <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F66">
-        <v>150</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2528,10 +2528,10 @@
         <v>32</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F67">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2551,7 +2551,7 @@
         <v>33</v>
       </c>
       <c r="F68">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2568,10 +2568,10 @@
         <v>32</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F69">
-        <v>160</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -2588,10 +2588,10 @@
         <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F70">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -2611,7 +2611,7 @@
         <v>33</v>
       </c>
       <c r="F71">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -2628,10 +2628,10 @@
         <v>32</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F72">
-        <v>300</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -2648,10 +2648,10 @@
         <v>32</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F73">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G73" t="s">
         <v>32</v>
@@ -2680,7 +2680,7 @@
         <v>33</v>
       </c>
       <c r="F74">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -2697,10 +2697,10 @@
         <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F75">
-        <v>1250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -2717,10 +2717,10 @@
         <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F76">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -2740,7 +2740,7 @@
         <v>33</v>
       </c>
       <c r="F77">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -2757,10 +2757,10 @@
         <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F78">
-        <v>2500</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -2777,7 +2777,7 @@
         <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F79">
         <v>200</v>
@@ -2800,7 +2800,7 @@
         <v>33</v>
       </c>
       <c r="F80">
-        <v>220</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -2817,10 +2817,10 @@
         <v>32</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81">
-        <v>10000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -2837,7 +2837,7 @@
         <v>32</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F82">
         <v>500</v>
@@ -2849,7 +2849,7 @@
         <v>34</v>
       </c>
       <c r="I82">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -2869,7 +2869,7 @@
         <v>33</v>
       </c>
       <c r="F83">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -2886,10 +2886,10 @@
         <v>32</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F84">
-        <v>1250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -2906,10 +2906,10 @@
         <v>32</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F85">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -2929,7 +2929,7 @@
         <v>33</v>
       </c>
       <c r="F86">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -2946,10 +2946,10 @@
         <v>32</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F87">
-        <v>2500</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -2966,7 +2966,7 @@
         <v>32</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F88">
         <v>200</v>
@@ -2989,7 +2989,7 @@
         <v>33</v>
       </c>
       <c r="F89">
-        <v>220</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -3006,10 +3006,10 @@
         <v>32</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90">
-        <v>10000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -3026,7 +3026,7 @@
         <v>32</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F91">
         <v>500</v>
@@ -3038,7 +3038,7 @@
         <v>34</v>
       </c>
       <c r="I91">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -3055,7 +3055,7 @@
         <v>32</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F92">
         <v>120</v>
@@ -3075,10 +3075,10 @@
         <v>32</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F93">
-        <v>1250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -3098,7 +3098,7 @@
         <v>36</v>
       </c>
       <c r="F94">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -3115,10 +3115,10 @@
         <v>32</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F95">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -3135,10 +3135,10 @@
         <v>32</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F96">
-        <v>2500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -3158,7 +3158,7 @@
         <v>36</v>
       </c>
       <c r="F97">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -3175,10 +3175,10 @@
         <v>32</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F98">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -3195,10 +3195,10 @@
         <v>32</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F99">
-        <v>10000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -3218,7 +3218,7 @@
         <v>36</v>
       </c>
       <c r="F100">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -3227,7 +3227,7 @@
         <v>34</v>
       </c>
       <c r="I100">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3244,7 +3244,7 @@
         <v>32</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F101">
         <v>120</v>
@@ -3264,10 +3264,10 @@
         <v>32</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F102">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -3284,10 +3284,10 @@
         <v>32</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F103">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -3304,10 +3304,10 @@
         <v>32</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F104">
-        <v>250</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -3324,10 +3324,10 @@
         <v>32</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F105">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -3344,10 +3344,10 @@
         <v>32</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F106">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -3364,10 +3364,10 @@
         <v>32</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F107">
-        <v>250</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -3384,10 +3384,10 @@
         <v>32</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F108">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -3404,10 +3404,10 @@
         <v>32</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F109">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -3416,7 +3416,7 @@
         <v>34</v>
       </c>
       <c r="I109">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">

--- a/Excel/Attendance.xlsx
+++ b/Excel/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891284F9-2356-4953-8853-5C808640E2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDB8D72-5304-4FE8-A7E0-992ACA2D6C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
         <v>34</v>
       </c>
       <c r="F7">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
         <v>34</v>
       </c>
       <c r="F11">
-        <v>120000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1426,7 +1426,7 @@
         <v>34</v>
       </c>
       <c r="F14">
-        <v>75000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>34</v>
       </c>
       <c r="F16">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1566,7 +1566,7 @@
         <v>34</v>
       </c>
       <c r="F21">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1626,7 +1626,7 @@
         <v>34</v>
       </c>
       <c r="F24">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>34</v>
       </c>
       <c r="F27">
-        <v>120000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1715,7 +1715,7 @@
         <v>34</v>
       </c>
       <c r="I28">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1755,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="F30">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1815,7 +1815,7 @@
         <v>34</v>
       </c>
       <c r="F33">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1875,7 +1875,7 @@
         <v>34</v>
       </c>
       <c r="F36">
-        <v>120000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1904,7 +1904,7 @@
         <v>34</v>
       </c>
       <c r="I37">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1944,7 +1944,7 @@
         <v>34</v>
       </c>
       <c r="F39">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2004,7 +2004,7 @@
         <v>34</v>
       </c>
       <c r="F42">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2064,7 +2064,7 @@
         <v>34</v>
       </c>
       <c r="F45">
-        <v>120000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2093,7 +2093,7 @@
         <v>34</v>
       </c>
       <c r="I46">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2133,7 +2133,7 @@
         <v>34</v>
       </c>
       <c r="F48">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2193,7 +2193,7 @@
         <v>34</v>
       </c>
       <c r="F51">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2253,7 +2253,7 @@
         <v>34</v>
       </c>
       <c r="F54">
-        <v>120000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2282,7 +2282,7 @@
         <v>34</v>
       </c>
       <c r="I55">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2322,7 +2322,7 @@
         <v>34</v>
       </c>
       <c r="F57">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2382,7 +2382,7 @@
         <v>34</v>
       </c>
       <c r="F60">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2442,7 +2442,7 @@
         <v>34</v>
       </c>
       <c r="F63">
-        <v>120000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2471,7 +2471,7 @@
         <v>34</v>
       </c>
       <c r="I64">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -2511,7 +2511,7 @@
         <v>34</v>
       </c>
       <c r="F66">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2571,7 +2571,7 @@
         <v>34</v>
       </c>
       <c r="F69">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -2631,7 +2631,7 @@
         <v>34</v>
       </c>
       <c r="F72">
-        <v>120000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -2660,7 +2660,7 @@
         <v>34</v>
       </c>
       <c r="I73">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -2849,7 +2849,7 @@
         <v>34</v>
       </c>
       <c r="I82">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -3038,7 +3038,7 @@
         <v>34</v>
       </c>
       <c r="I91">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -3227,7 +3227,7 @@
         <v>34</v>
       </c>
       <c r="I100">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3416,7 +3416,7 @@
         <v>34</v>
       </c>
       <c r="I109">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -3456,7 +3456,7 @@
         <v>34</v>
       </c>
       <c r="F111">
-        <v>1250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -3476,7 +3476,7 @@
         <v>34</v>
       </c>
       <c r="F112">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -3525,7 +3525,7 @@
         <v>34</v>
       </c>
       <c r="I114">
-        <v>7500000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -3565,7 +3565,7 @@
         <v>34</v>
       </c>
       <c r="F116">
-        <v>1250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -3585,7 +3585,7 @@
         <v>34</v>
       </c>
       <c r="F117">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -3625,7 +3625,7 @@
         <v>34</v>
       </c>
       <c r="F119">
-        <v>2500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="F120">
-        <v>3750</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -3685,7 +3685,7 @@
         <v>34</v>
       </c>
       <c r="F122">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -3705,7 +3705,7 @@
         <v>34</v>
       </c>
       <c r="F123">
-        <v>6250</v>
+        <v>625</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -3725,7 +3725,7 @@
         <v>34</v>
       </c>
       <c r="F124">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -3765,7 +3765,7 @@
         <v>34</v>
       </c>
       <c r="F126">
-        <v>12500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -3785,7 +3785,7 @@
         <v>34</v>
       </c>
       <c r="F127">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -3825,7 +3825,7 @@
         <v>34</v>
       </c>
       <c r="F129">
-        <v>25000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -3845,7 +3845,7 @@
         <v>34</v>
       </c>
       <c r="F130">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -3874,7 +3874,7 @@
         <v>34</v>
       </c>
       <c r="I131">
-        <v>7500000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -3914,7 +3914,7 @@
         <v>34</v>
       </c>
       <c r="F133">
-        <v>1250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -3934,7 +3934,7 @@
         <v>34</v>
       </c>
       <c r="F134">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -3974,7 +3974,7 @@
         <v>34</v>
       </c>
       <c r="F136">
-        <v>2500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -3994,7 +3994,7 @@
         <v>34</v>
       </c>
       <c r="F137">
-        <v>3750</v>
+        <v>375</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
         <v>34</v>
       </c>
       <c r="F139">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -4054,7 +4054,7 @@
         <v>34</v>
       </c>
       <c r="F140">
-        <v>6250</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -4074,7 +4074,7 @@
         <v>34</v>
       </c>
       <c r="F141">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -4114,7 +4114,7 @@
         <v>34</v>
       </c>
       <c r="F143">
-        <v>12500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -4134,7 +4134,7 @@
         <v>34</v>
       </c>
       <c r="F144">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -4174,7 +4174,7 @@
         <v>34</v>
       </c>
       <c r="F146">
-        <v>25000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -4194,7 +4194,7 @@
         <v>34</v>
       </c>
       <c r="F147">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -4214,7 +4214,7 @@
         <v>34</v>
       </c>
       <c r="F148">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -4254,7 +4254,7 @@
         <v>34</v>
       </c>
       <c r="F150">
-        <v>33750</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -4274,7 +4274,7 @@
         <v>34</v>
       </c>
       <c r="F151">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -4303,7 +4303,7 @@
         <v>34</v>
       </c>
       <c r="I152">
-        <v>7500000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -4343,7 +4343,7 @@
         <v>34</v>
       </c>
       <c r="F154">
-        <v>1250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -4363,7 +4363,7 @@
         <v>34</v>
       </c>
       <c r="F155">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -4403,7 +4403,7 @@
         <v>34</v>
       </c>
       <c r="F157">
-        <v>2500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -4423,7 +4423,7 @@
         <v>34</v>
       </c>
       <c r="F158">
-        <v>3750</v>
+        <v>375</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -4463,7 +4463,7 @@
         <v>34</v>
       </c>
       <c r="F160">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4483,7 +4483,7 @@
         <v>34</v>
       </c>
       <c r="F161">
-        <v>6250</v>
+        <v>625</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4503,7 +4503,7 @@
         <v>34</v>
       </c>
       <c r="F162">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4543,7 +4543,7 @@
         <v>34</v>
       </c>
       <c r="F164">
-        <v>12500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4563,7 +4563,7 @@
         <v>34</v>
       </c>
       <c r="F165">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4603,7 +4603,7 @@
         <v>34</v>
       </c>
       <c r="F167">
-        <v>25000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4623,7 +4623,7 @@
         <v>34</v>
       </c>
       <c r="F168">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4643,7 +4643,7 @@
         <v>34</v>
       </c>
       <c r="F169">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4683,7 +4683,7 @@
         <v>34</v>
       </c>
       <c r="F171">
-        <v>33750</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4703,7 +4703,7 @@
         <v>34</v>
       </c>
       <c r="F172">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -4743,7 +4743,7 @@
         <v>34</v>
       </c>
       <c r="F174">
-        <v>27500</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -4763,7 +4763,7 @@
         <v>34</v>
       </c>
       <c r="F175">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -4783,7 +4783,7 @@
         <v>34</v>
       </c>
       <c r="F176">
-        <v>36250</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -4823,7 +4823,7 @@
         <v>34</v>
       </c>
       <c r="F178">
-        <v>50000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -4843,7 +4843,7 @@
         <v>34</v>
       </c>
       <c r="F179">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -4863,7 +4863,7 @@
         <v>34</v>
       </c>
       <c r="F180">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -4892,7 +4892,7 @@
         <v>34</v>
       </c>
       <c r="I181">
-        <v>7500000</v>
+        <v>750000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Attendance.xlsx
+++ b/Excel/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDB8D72-5304-4FE8-A7E0-992ACA2D6C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A6D15E-AB48-42E4-BE0B-508F0BDA5894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{58A03A14-B2CF-4C92-9269-F2DCB9F530D2}"/>
   </bookViews>
@@ -1183,10 +1183,10 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1203,10 +1203,10 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>9000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1226,7 +1226,7 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1246,7 +1246,7 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>360</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
